--- a/stock_predictor_ai/data/cleaned/MPC.xlsx
+++ b/stock_predictor_ai/data/cleaned/MPC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3525"/>
+  <dimension ref="A1:F3526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70949,6 +70949,26 @@
         <v>159393</v>
       </c>
     </row>
+    <row r="3526">
+      <c r="A3526" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3526" t="n">
+        <v>180.1199951171875</v>
+      </c>
+      <c r="C3526" t="n">
+        <v>180.5500030517578</v>
+      </c>
+      <c r="D3526" t="n">
+        <v>179.5099945068359</v>
+      </c>
+      <c r="E3526" t="n">
+        <v>179.9299926757812</v>
+      </c>
+      <c r="F3526" t="n">
+        <v>102096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MPC.xlsx
+++ b/stock_predictor_ai/data/cleaned/MPC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3526"/>
+  <dimension ref="A1:F3527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70969,6 +70969,26 @@
         <v>102096</v>
       </c>
     </row>
+    <row r="3527">
+      <c r="A3527" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3527" t="n">
+        <v>175.6199951171875</v>
+      </c>
+      <c r="C3527" t="n">
+        <v>177.2799987792969</v>
+      </c>
+      <c r="D3527" t="n">
+        <v>174.5599975585938</v>
+      </c>
+      <c r="E3527" t="n">
+        <v>175.8600006103516</v>
+      </c>
+      <c r="F3527" t="n">
+        <v>1784900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MPC.xlsx
+++ b/stock_predictor_ai/data/cleaned/MPC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3527"/>
+  <dimension ref="A1:F3528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70989,6 +70989,26 @@
         <v>1784900</v>
       </c>
     </row>
+    <row r="3528">
+      <c r="A3528" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3528" t="n">
+        <v>174.8800048828125</v>
+      </c>
+      <c r="C3528" t="n">
+        <v>175.3899993896484</v>
+      </c>
+      <c r="D3528" t="n">
+        <v>173.9700012207031</v>
+      </c>
+      <c r="E3528" t="n">
+        <v>174.9900054931641</v>
+      </c>
+      <c r="F3528" t="n">
+        <v>153407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MPC.xlsx
+++ b/stock_predictor_ai/data/cleaned/MPC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3528"/>
+  <dimension ref="A1:F3529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71009,6 +71009,26 @@
         <v>153407</v>
       </c>
     </row>
+    <row r="3529">
+      <c r="A3529" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3529" t="n">
+        <v>179.5449981689453</v>
+      </c>
+      <c r="C3529" t="n">
+        <v>180.0299987792969</v>
+      </c>
+      <c r="D3529" t="n">
+        <v>177.9024963378906</v>
+      </c>
+      <c r="E3529" t="n">
+        <v>178.8600006103516</v>
+      </c>
+      <c r="F3529" t="n">
+        <v>1018960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/MPC.xlsx
+++ b/stock_predictor_ai/data/cleaned/MPC.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3529"/>
+  <dimension ref="A1:F3524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70929,106 +70931,6 @@
         <v>8636600</v>
       </c>
     </row>
-    <row r="3525">
-      <c r="A3525" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3525" t="n">
-        <v>175.7200012207031</v>
-      </c>
-      <c r="C3525" t="n">
-        <v>176.7100067138672</v>
-      </c>
-      <c r="D3525" t="n">
-        <v>173</v>
-      </c>
-      <c r="E3525" t="n">
-        <v>173.2799987792969</v>
-      </c>
-      <c r="F3525" t="n">
-        <v>159393</v>
-      </c>
-    </row>
-    <row r="3526">
-      <c r="A3526" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3526" t="n">
-        <v>180.1199951171875</v>
-      </c>
-      <c r="C3526" t="n">
-        <v>180.5500030517578</v>
-      </c>
-      <c r="D3526" t="n">
-        <v>179.5099945068359</v>
-      </c>
-      <c r="E3526" t="n">
-        <v>179.9299926757812</v>
-      </c>
-      <c r="F3526" t="n">
-        <v>102096</v>
-      </c>
-    </row>
-    <row r="3527">
-      <c r="A3527" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3527" t="n">
-        <v>175.6199951171875</v>
-      </c>
-      <c r="C3527" t="n">
-        <v>177.2799987792969</v>
-      </c>
-      <c r="D3527" t="n">
-        <v>174.5599975585938</v>
-      </c>
-      <c r="E3527" t="n">
-        <v>175.8600006103516</v>
-      </c>
-      <c r="F3527" t="n">
-        <v>1784900</v>
-      </c>
-    </row>
-    <row r="3528">
-      <c r="A3528" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3528" t="n">
-        <v>174.8800048828125</v>
-      </c>
-      <c r="C3528" t="n">
-        <v>175.3899993896484</v>
-      </c>
-      <c r="D3528" t="n">
-        <v>173.9700012207031</v>
-      </c>
-      <c r="E3528" t="n">
-        <v>174.9900054931641</v>
-      </c>
-      <c r="F3528" t="n">
-        <v>153407</v>
-      </c>
-    </row>
-    <row r="3529">
-      <c r="A3529" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3529" t="n">
-        <v>179.5449981689453</v>
-      </c>
-      <c r="C3529" t="n">
-        <v>180.0299987792969</v>
-      </c>
-      <c r="D3529" t="n">
-        <v>177.9024963378906</v>
-      </c>
-      <c r="E3529" t="n">
-        <v>178.8600006103516</v>
-      </c>
-      <c r="F3529" t="n">
-        <v>1018960</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
